--- a/hovImuBoard_BOM.xlsx
+++ b/hovImuBoard_BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="151">
   <si>
     <t xml:space="preserve">    C5</t>
   </si>
@@ -179,12 +179,6 @@
     <t>AVR-JTAG-10</t>
   </si>
   <si>
-    <t>A33175-ND</t>
-  </si>
-  <si>
-    <t>5104338-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">    L1</t>
   </si>
   <si>
@@ -227,15 +221,6 @@
     <t>&gt;  L4, L5</t>
   </si>
   <si>
-    <t>22uH</t>
-  </si>
-  <si>
-    <t>587-3608-1-ND</t>
-  </si>
-  <si>
-    <t>NRS5040T220MMGKV</t>
-  </si>
-  <si>
     <t xml:space="preserve">    R1</t>
   </si>
   <si>
@@ -387,6 +372,111 @@
   </si>
   <si>
     <t>ECS Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    H1</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J2</t>
+  </si>
+  <si>
+    <t>Ext. Power</t>
+  </si>
+  <si>
+    <t>SAM10711-ND</t>
+  </si>
+  <si>
+    <t>SHF-105-01-L-D-TH</t>
+  </si>
+  <si>
+    <t>Samtec Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J5</t>
+  </si>
+  <si>
+    <t>ExtensionPort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J6</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    JP17</t>
+  </si>
+  <si>
+    <t>0x69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    JP18</t>
+  </si>
+  <si>
+    <t>0x68</t>
+  </si>
+  <si>
+    <t>&gt;  JP19, JP20</t>
+  </si>
+  <si>
+    <t>Jumper_2_Bridged</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>587-2552-1-ND</t>
+  </si>
+  <si>
+    <t>NRS5012T2R2MMGF</t>
+  </si>
+  <si>
+    <t>&gt;  LOGO1, LOGO2</t>
+  </si>
+  <si>
+    <t>Logo_Open_Hardware_Small</t>
+  </si>
+  <si>
+    <t>541-200CCT-ND</t>
+  </si>
+  <si>
+    <t>CRCW0805200RFKEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TP1</t>
+  </si>
+  <si>
+    <t>+3.3V_IMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TP2</t>
+  </si>
+  <si>
+    <t>+12V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TP3</t>
+  </si>
+  <si>
+    <t>+5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TP4</t>
+  </si>
+  <si>
+    <t>+3.3V</t>
+  </si>
+  <si>
+    <t>377-1757-ND</t>
+  </si>
+  <si>
+    <t>CU-1935-MB</t>
+  </si>
+  <si>
+    <t>Bud Industries</t>
   </si>
 </sst>
 </file>
@@ -704,18 +794,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -736,7 +825,7 @@
         <v>4</v>
       </c>
       <c r="F1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -756,7 +845,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -776,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -796,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -816,7 +905,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -836,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -856,7 +945,7 @@
         <v>30</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -876,7 +965,7 @@
         <v>35</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -896,407 +985,548 @@
         <v>35</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18">
-        <v>155</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" t="s">
-        <v>74</v>
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20">
-        <v>150</v>
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" t="s">
-        <v>105</v>
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>200</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" t="s">
-        <v>113</v>
+        <v>75</v>
+      </c>
+      <c r="B28">
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/hovImuBoard_BOM.xlsx
+++ b/hovImuBoard_BOM.xlsx
@@ -350,9 +350,6 @@
     <t>VESD16C1-02V-G3-08</t>
   </si>
   <si>
-    <t>ESD PROTECTION DIODE 17V 6.3A SOD-523</t>
-  </si>
-  <si>
     <t>VESD16C1-02V-G3-08GICT-ND</t>
   </si>
   <si>
@@ -516,6 +513,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESD PROTECTION DIODE 17V 6.3A SOD-523 </t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -555,13 +555,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,747 +868,755 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2">
+      <c r="D8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="6">
+        <v>330</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="6">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="6">
+        <v>787</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="6">
         <v>100</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7">
+      <c r="C21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="6">
+        <v>47</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18">
-        <v>330</v>
-      </c>
-      <c r="C18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19">
-        <v>787</v>
-      </c>
-      <c r="C19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21">
-        <v>100</v>
-      </c>
-      <c r="C21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F24" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E28" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="D31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="D32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>